--- a/data/iAtlantic_cruises/2019_PS120_leg2_participants.xlsx
+++ b/data/iAtlantic_cruises/2019_PS120_leg2_participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sa07kb\Projects\iAtlantic\Subprojects\CO2_footprint\data\iAtlantic_cruises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A15E292-C725-4161-ABB2-ECD1231EE00C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C559C1B0-58CD-46C5-91FC-524899606E3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7695" yWindow="5805" windowWidth="19200" windowHeight="10200" xr2:uid="{C30C79F7-EBB4-4DD4-AD5D-157C40AE876E}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C30C79F7-EBB4-4DD4-AD5D-157C40AE876E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Bremerhaven</t>
   </si>
   <si>
-    <t>Cape Town</t>
-  </si>
-  <si>
     <t>PS120 leg 2</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Hamburg</t>
+  </si>
+  <si>
+    <t>las Palmas</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>43636</v>
@@ -461,10 +461,10 @@
         <v>43645</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -473,68 +473,68 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
